--- a/group/exam1_ansewer/模範回答.xlsx
+++ b/group/exam1_ansewer/模範回答.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oohara-my.sharepoint.com/personal/hideki_tsujimoto_mail_o-hara_ac_jp/Documents/_授業・クラス運営/2022入学/授業/2年2学期/17_オブジェクト指向分析設計/効果測定/第2回/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/kmm2459392_stu_o-hara_ac_jp/Documents/デスクトップ/develop/ohara_uml/group/exam1_ansewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{111ED8D4-8EC1-4027-B3BC-4070FB8F32B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF5161F-E7B0-4EB2-9E5D-33DE04123717}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="7570" windowHeight="10890" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ドメインモデル" sheetId="1" r:id="rId1"/>
@@ -2379,6 +2379,144 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2394,21 +2532,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2423,129 +2546,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2977,13 +2977,13 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:D2"/>
@@ -3064,9 +3064,9 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M1:N1"/>
@@ -3143,19 +3143,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3176,55 +3176,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="66" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="78">
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="49">
         <v>45184</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="41">
+      <c r="N2" s="42"/>
+      <c r="O2" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="44" t="s">
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="12" t="s">
         <v>25</v>
       </c>
@@ -3232,195 +3232,215 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="47" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
+    </row>
+    <row r="11" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="325.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="1:15" ht="325.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" ht="387" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+    </row>
+    <row r="14" spans="1:15" ht="387" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="23" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="A1:D4"/>
@@ -3430,26 +3450,6 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:L4"/>
     <mergeCell ref="M2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3464,19 +3464,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3497,55 +3497,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="66" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="78">
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="49">
         <v>45184</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="41">
+      <c r="N2" s="42"/>
+      <c r="O2" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="44" t="s">
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
@@ -3553,195 +3553,215 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="47" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
+    </row>
+    <row r="11" spans="1:15" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="290.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="1:15" ht="290.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+    </row>
+    <row r="14" spans="1:15" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="79" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="80"/>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="23" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="A1:D4"/>
@@ -3751,26 +3771,6 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:L4"/>
     <mergeCell ref="M2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3789,15 +3789,15 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3818,55 +3818,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="66" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="78">
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="49">
         <v>45184</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="41">
+      <c r="N2" s="42"/>
+      <c r="O2" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="44" t="s">
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
@@ -3874,157 +3874,157 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="47" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
+    </row>
+    <row r="11" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="253.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="1:15" ht="253.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" ht="370.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+    </row>
+    <row r="14" spans="1:15" ht="370.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="79" t="s">
         <v>16</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="L14" s="84"/>
       <c r="M14" s="85"/>
     </row>
-    <row r="15" spans="1:15" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="81"/>
       <c r="C15" s="82"/>
       <c r="D15" s="86"/>
@@ -4056,27 +4056,47 @@
       <c r="L15" s="87"/>
       <c r="M15" s="88"/>
     </row>
-    <row r="16" spans="1:15" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="1:15" ht="40.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+    </row>
+    <row r="17" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:M15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="A1:D4"/>
@@ -4086,26 +4106,6 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:L4"/>
     <mergeCell ref="M2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:M15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4120,19 +4120,19 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4153,55 +4153,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="66" t="s">
+    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="89">
         <v>45184</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="41">
+      <c r="N2" s="42"/>
+      <c r="O2" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="44" t="s">
+    <row r="3" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
@@ -4209,195 +4209,215 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="43"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="47" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:15" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="52" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="28" t="s">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:15" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+    </row>
+    <row r="13" spans="1:15" ht="186" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:15" ht="230.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="28" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="78"/>
+    </row>
+    <row r="14" spans="1:15" ht="230.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="23" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="78"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B15" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="1:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:M6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:M7"/>
     <mergeCell ref="A1:D4"/>
@@ -4407,26 +4427,6 @@
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:L4"/>
     <mergeCell ref="M2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:M14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,6 +4435,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="00b68e39924f37ea7b1a5acaf8857e0e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1760b117eeeff4f4de69ce8d4b9089c6" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -4635,34 +4655,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE4064D-DD73-48D5-9AC1-0F0DD33A57FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C066EC-C8A5-4C62-ADA7-DA0CBBF371F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{047440B8-2702-4984-9F13-7392FE92494B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{047440B8-2702-4984-9F13-7392FE92494B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C066EC-C8A5-4C62-ADA7-DA0CBBF371F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE4064D-DD73-48D5-9AC1-0F0DD33A57FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>